--- a/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_MR.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_MR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\1_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59191B77-6476-4065-8028-522F42FB066E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AFAA7-9EF0-4D0D-89B2-62083F294B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Activation</t>
   </si>
@@ -125,12 +125,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1019,403 +1027,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F109D-183B-44BC-9418-D7BB6FD5C4FB}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>78.16307544708252</v>
+      </c>
+      <c r="E2" s="3">
+        <v>79.756325483322144</v>
+      </c>
+      <c r="F2" s="3">
+        <v>79.549717903137207</v>
+      </c>
+      <c r="G2" s="3">
+        <v>78.424012660980225</v>
+      </c>
+      <c r="H2" s="3">
+        <v>78.330206871032715</v>
+      </c>
+      <c r="I2" s="3">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="J2" s="3">
+        <v>77.392119169235229</v>
+      </c>
+      <c r="K2" s="3">
+        <v>77.861166000366211</v>
+      </c>
+      <c r="L2" s="3">
+        <v>80.956846475601196</v>
+      </c>
+      <c r="M2" s="3">
+        <v>80.300188064575195</v>
+      </c>
+      <c r="N2" s="3">
+        <v>78.972052335739136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>71.790063381195068</v>
-      </c>
-      <c r="E2" s="2">
-        <v>77.600747346878052</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D3" s="3">
+        <v>81.443297863006592</v>
+      </c>
+      <c r="E3" s="3">
+        <v>79.568886756896973</v>
+      </c>
+      <c r="F3" s="3">
+        <v>76.735460758209229</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80.112570524215698</v>
+      </c>
+      <c r="H3" s="3">
+        <v>77.954971790313721</v>
+      </c>
+      <c r="I3" s="3">
+        <v>76.923078298568726</v>
+      </c>
+      <c r="J3" s="3">
+        <v>78.705441951751709</v>
+      </c>
+      <c r="K3" s="3">
+        <v>78.799247741699219</v>
+      </c>
+      <c r="L3" s="3">
+        <v>77.579736709594727</v>
+      </c>
+      <c r="M3" s="3">
+        <v>80.581611394882202</v>
+      </c>
+      <c r="N3" s="3">
+        <v>78.840430378913879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>77.507030963897705</v>
+      </c>
+      <c r="E4" s="3">
+        <v>77.319586277008057</v>
+      </c>
+      <c r="F4" s="3">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="G4" s="3">
+        <v>78.236395120620728</v>
+      </c>
+      <c r="H4" s="3">
+        <v>78.236395120620728</v>
+      </c>
+      <c r="I4" s="3">
+        <v>50.750470161437988</v>
+      </c>
+      <c r="J4" s="3">
+        <v>79.737335443496704</v>
+      </c>
+      <c r="K4" s="3">
         <v>75.422137975692749</v>
       </c>
-      <c r="G2" s="2">
-        <v>70.262664556503296</v>
-      </c>
-      <c r="H2" s="2">
-        <v>73.827391862869263</v>
-      </c>
-      <c r="I2" s="2">
-        <v>74.01500940322876</v>
-      </c>
-      <c r="J2" s="2">
-        <v>75.89118480682373</v>
-      </c>
-      <c r="K2" s="2">
-        <v>76.454031467437744</v>
-      </c>
-      <c r="L2" s="2">
-        <v>74.765479564666748</v>
-      </c>
-      <c r="M2" s="2">
-        <v>76.454031467437744</v>
-      </c>
-      <c r="N2" s="2">
-        <v>74.648274183273315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="L4" s="3">
+        <v>76.360225677490234</v>
+      </c>
+      <c r="M4" s="3">
+        <v>79.831147193908691</v>
+      </c>
+      <c r="N4" s="3">
+        <v>75.229378342628479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>77.881914377212524</v>
+      </c>
+      <c r="E5" s="3">
+        <v>79.100281000137329</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50.656658411026001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>79.455912113189697</v>
+      </c>
+      <c r="H5" s="3">
+        <v>77.861166000366211</v>
+      </c>
+      <c r="I5" s="3">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="J5" s="3">
+        <v>78.142589330673218</v>
+      </c>
+      <c r="K5" s="3">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="L5" s="3">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="M5" s="3">
+        <v>50.469040870666497</v>
+      </c>
+      <c r="N5" s="3">
+        <v>73.043435215950012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>70.009374618530273</v>
-      </c>
-      <c r="E3" s="2">
-        <v>72.727274894714355</v>
-      </c>
-      <c r="F3" s="2">
-        <v>72.045028209686279</v>
-      </c>
-      <c r="G3" s="2">
-        <v>75.89118480682373</v>
-      </c>
-      <c r="H3" s="2">
-        <v>75.703567266464233</v>
-      </c>
-      <c r="I3" s="2">
-        <v>71.575987339019775</v>
-      </c>
-      <c r="J3" s="2">
-        <v>74.765479564666748</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50.328022241592407</v>
+      </c>
+      <c r="E6" s="3">
+        <v>79.662603139877319</v>
+      </c>
+      <c r="F6" s="3">
+        <v>75.422137975692749</v>
+      </c>
+      <c r="G6" s="3">
+        <v>78.517824411392212</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50.469040870666497</v>
+      </c>
+      <c r="I6" s="3">
+        <v>77.485930919647217</v>
+      </c>
+      <c r="J6" s="3">
+        <v>79.36210036277771</v>
+      </c>
+      <c r="K6" s="3">
+        <v>77.954971790313721</v>
+      </c>
+      <c r="L6" s="3">
+        <v>78.799247741699219</v>
+      </c>
+      <c r="M6" s="3">
+        <v>79.080677032470703</v>
+      </c>
+      <c r="N6" s="3">
+        <v>72.708255648612976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>78.069353103637695</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78.537958860397339</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49.624764919281013</v>
+      </c>
+      <c r="G7" s="3">
+        <v>78.142589330673218</v>
+      </c>
+      <c r="H7" s="3">
+        <v>77.767354249954224</v>
+      </c>
+      <c r="I7" s="3">
+        <v>77.673548460006714</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50.656658411026001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>78.517824411392212</v>
+      </c>
+      <c r="L7" s="3">
+        <v>79.455912113189697</v>
+      </c>
+      <c r="M7" s="3">
+        <v>78.517824411392212</v>
+      </c>
+      <c r="N7" s="3">
+        <v>72.696378827095032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>77.413308620452881</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78.912842273712158</v>
+      </c>
+      <c r="F8" s="3">
+        <v>76.829266548156738</v>
+      </c>
+      <c r="G8" s="3">
+        <v>77.392119169235229</v>
+      </c>
+      <c r="H8" s="3">
+        <v>78.236395120620728</v>
+      </c>
+      <c r="I8" s="3">
+        <v>50</v>
+      </c>
+      <c r="J8" s="3">
+        <v>50.656658411026001</v>
+      </c>
+      <c r="K8" s="3">
         <v>76.547843217849731</v>
       </c>
-      <c r="L3" s="2">
-        <v>76.547843217849731</v>
-      </c>
-      <c r="M3" s="2">
-        <v>74.10881519317627</v>
-      </c>
-      <c r="N3" s="2">
-        <v>73.992239832878113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>73.851919174194336</v>
-      </c>
-      <c r="E4" s="2">
-        <v>74.226802587509155</v>
-      </c>
-      <c r="F4" s="2">
-        <v>72.70168662071228</v>
-      </c>
-      <c r="G4" s="2">
-        <v>75.98499059677124</v>
-      </c>
-      <c r="H4" s="2">
-        <v>70.7317054271698</v>
-      </c>
-      <c r="I4" s="2">
-        <v>68.66791844367981</v>
-      </c>
-      <c r="J4" s="2">
-        <v>71.013134717941284</v>
-      </c>
-      <c r="K4" s="2">
-        <v>73.452156782150269</v>
-      </c>
-      <c r="L4" s="2">
-        <v>72.889304161071777</v>
-      </c>
-      <c r="M4" s="2">
-        <v>72.514069080352783</v>
-      </c>
-      <c r="N4" s="2">
-        <v>72.603368759155273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="L8" s="3">
+        <v>75.328332185745239</v>
+      </c>
+      <c r="M8" s="3">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="N8" s="3">
+        <v>72.020982503890991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>73.477035760879517</v>
-      </c>
-      <c r="E5" s="2">
-        <v>69.447046518325806</v>
-      </c>
-      <c r="F5" s="2">
-        <v>74.671667814254761</v>
-      </c>
-      <c r="G5" s="2">
-        <v>73.545968532562256</v>
-      </c>
-      <c r="H5" s="2">
-        <v>72.514069080352783</v>
-      </c>
-      <c r="I5" s="2">
-        <v>72.889304161071777</v>
-      </c>
-      <c r="J5" s="2">
-        <v>70.7317054271698</v>
-      </c>
-      <c r="K5" s="2">
-        <v>71.575987339019775</v>
-      </c>
-      <c r="L5" s="2">
-        <v>70.825517177581787</v>
-      </c>
-      <c r="M5" s="2">
-        <v>73.545968532562256</v>
-      </c>
-      <c r="N5" s="2">
-        <v>72.322427034378052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>68.416118621826172</v>
-      </c>
-      <c r="E6" s="2">
-        <v>71.040302515029907</v>
-      </c>
-      <c r="F6" s="2">
-        <v>73.358350992202759</v>
-      </c>
-      <c r="G6" s="2">
-        <v>64.821761846542358</v>
-      </c>
-      <c r="H6" s="2">
-        <v>75.515949726104736</v>
-      </c>
-      <c r="I6" s="2">
-        <v>76.266413927078247</v>
-      </c>
-      <c r="J6" s="2">
-        <v>68.292683362960815</v>
-      </c>
-      <c r="K6" s="2">
-        <v>73.92120361328125</v>
-      </c>
-      <c r="L6" s="2">
-        <v>75.328332185745239</v>
-      </c>
-      <c r="M6" s="2">
-        <v>74.484050273895264</v>
-      </c>
-      <c r="N6" s="2">
-        <v>72.144516706466675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>71.040302515029907</v>
-      </c>
-      <c r="E7" s="2">
-        <v>78.069353103637695</v>
-      </c>
-      <c r="F7" s="2">
-        <v>64.165103435516357</v>
-      </c>
-      <c r="G7" s="2">
-        <v>72.326451539993286</v>
-      </c>
-      <c r="H7" s="2">
-        <v>71.200752258300781</v>
-      </c>
-      <c r="I7" s="2">
-        <v>76.07879638671875</v>
-      </c>
-      <c r="J7" s="2">
-        <v>70.919322967529297</v>
-      </c>
-      <c r="K7" s="2">
-        <v>75.328332185745239</v>
-      </c>
-      <c r="L7" s="2">
-        <v>68.66791844367981</v>
-      </c>
-      <c r="M7" s="2">
-        <v>69.043153524398804</v>
-      </c>
-      <c r="N7" s="2">
-        <v>71.683948636054993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>74.789130687713623</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75.164014101028442</v>
-      </c>
-      <c r="F8" s="2">
-        <v>72.889304161071777</v>
-      </c>
-      <c r="G8" s="2">
-        <v>62.570357322692871</v>
-      </c>
-      <c r="H8" s="2">
-        <v>74.765479564666748</v>
-      </c>
-      <c r="I8" s="2">
-        <v>74.859285354614258</v>
-      </c>
-      <c r="J8" s="2">
-        <v>70.63789963722229</v>
-      </c>
-      <c r="K8" s="2">
-        <v>71.575987339019775</v>
-      </c>
-      <c r="L8" s="2">
-        <v>64.352720975875854</v>
-      </c>
-      <c r="M8" s="2">
-        <v>69.230771064758301</v>
-      </c>
-      <c r="N8" s="2">
-        <v>71.083495020866394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>68.134957551956177</v>
-      </c>
-      <c r="E9" s="2">
-        <v>71.508902311325073</v>
-      </c>
-      <c r="F9" s="2">
-        <v>73.452156782150269</v>
-      </c>
-      <c r="G9" s="2">
-        <v>72.232645750045776</v>
-      </c>
-      <c r="H9" s="2">
-        <v>72.420263290405273</v>
-      </c>
-      <c r="I9" s="2">
-        <v>51.125705242156982</v>
-      </c>
-      <c r="J9" s="2">
-        <v>68.386489152908325</v>
-      </c>
-      <c r="K9" s="2">
-        <v>73.545968532562256</v>
-      </c>
-      <c r="L9" s="2">
-        <v>71.95122241973877</v>
-      </c>
-      <c r="M9" s="2">
-        <v>70.63789963722229</v>
-      </c>
-      <c r="N9" s="2">
-        <v>69.339621067047119</v>
+      <c r="D9" s="3">
+        <v>46.860355138778687</v>
+      </c>
+      <c r="E9" s="3">
+        <v>77.694469690322876</v>
+      </c>
+      <c r="F9" s="3">
+        <v>48.968106508254998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>47.936210036277771</v>
+      </c>
+      <c r="H9" s="3">
+        <v>77.392119169235229</v>
+      </c>
+      <c r="I9" s="3">
+        <v>78.236395120620728</v>
+      </c>
+      <c r="J9" s="3">
+        <v>50.469040870666497</v>
+      </c>
+      <c r="K9" s="3">
+        <v>77.673548460006714</v>
+      </c>
+      <c r="L9" s="3">
+        <v>76.829266548156738</v>
+      </c>
+      <c r="M9" s="3">
+        <v>79.924952983856201</v>
+      </c>
+      <c r="N9" s="3">
+        <v>66.198446452617645</v>
       </c>
     </row>
   </sheetData>
@@ -1429,403 +1438,322 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>80.787253379821777</v>
+      </c>
+      <c r="E2" s="5">
+        <v>79.568886756896973</v>
+      </c>
+      <c r="F2" s="5">
+        <v>80.581611394882202</v>
+      </c>
+      <c r="G2" s="5">
+        <v>79.080677032470703</v>
+      </c>
+      <c r="H2" s="5">
+        <v>79.080677032470703</v>
+      </c>
+      <c r="I2" s="5">
+        <v>80.112570524215698</v>
+      </c>
+      <c r="J2" s="5">
+        <v>78.04877758026123</v>
+      </c>
+      <c r="K2" s="5">
+        <v>78.330206871032715</v>
+      </c>
+      <c r="L2" s="5">
+        <v>78.705441951751709</v>
+      </c>
+      <c r="M2" s="5">
+        <v>80.112570524215698</v>
+      </c>
+      <c r="N2" s="5">
+        <v>79.440867304801941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>77.132147550582886</v>
-      </c>
-      <c r="E2">
-        <v>70.009374618530273</v>
-      </c>
-      <c r="F2">
-        <v>80.112570524215698</v>
-      </c>
-      <c r="G2">
-        <v>75.328332185745239</v>
-      </c>
-      <c r="H2">
-        <v>77.392119169235229</v>
-      </c>
-      <c r="I2">
+      <c r="D3" s="5">
+        <v>77.975630760192871</v>
+      </c>
+      <c r="E3" s="5">
+        <v>79.662603139877319</v>
+      </c>
+      <c r="F3" s="5">
+        <v>79.080677032470703</v>
+      </c>
+      <c r="G3" s="5">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="H3" s="5">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="I3" s="5">
+        <v>79.549717903137207</v>
+      </c>
+      <c r="J3" s="5">
+        <v>79.174482822418213</v>
+      </c>
+      <c r="K3" s="5">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="L3" s="5">
+        <v>79.36210036277771</v>
+      </c>
+      <c r="M3" s="5">
+        <v>79.36210036277771</v>
+      </c>
+      <c r="N3" s="5">
+        <v>79.094029664993286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>78.72539758682251</v>
+      </c>
+      <c r="E4" s="5">
+        <v>80.880975723266602</v>
+      </c>
+      <c r="F4" s="5">
+        <v>79.174482822418213</v>
+      </c>
+      <c r="G4" s="5">
+        <v>76.829266548156738</v>
+      </c>
+      <c r="H4" s="5">
+        <v>78.705441951751709</v>
+      </c>
+      <c r="I4" s="5">
+        <v>78.142589330673218</v>
+      </c>
+      <c r="J4" s="5">
+        <v>81.519699096679688</v>
+      </c>
+      <c r="K4" s="5">
+        <v>78.517824411392212</v>
+      </c>
+      <c r="L4" s="5">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="M4" s="5">
+        <v>78.986865282058716</v>
+      </c>
+      <c r="N4" s="5">
+        <v>79.046940803527832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>80.412369966506958</v>
+      </c>
+      <c r="E5" s="5">
+        <v>78.631675243377686</v>
+      </c>
+      <c r="F5" s="5">
+        <v>78.424012660980225</v>
+      </c>
+      <c r="G5" s="5">
+        <v>78.705441951751709</v>
+      </c>
+      <c r="H5" s="5">
+        <v>78.799247741699219</v>
+      </c>
+      <c r="I5" s="5">
+        <v>77.579736709594727</v>
+      </c>
+      <c r="J5" s="5">
+        <v>78.517824411392212</v>
+      </c>
+      <c r="K5" s="5">
+        <v>79.2682945728302</v>
+      </c>
+      <c r="L5" s="5">
+        <v>78.799247741699219</v>
+      </c>
+      <c r="M5" s="5">
+        <v>78.611630201339722</v>
+      </c>
+      <c r="N5" s="5">
+        <v>78.774948120117188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>77.507030963897705</v>
+      </c>
+      <c r="E6" s="5">
+        <v>79.2877197265625</v>
+      </c>
+      <c r="F6" s="5">
+        <v>78.142589330673218</v>
+      </c>
+      <c r="G6" s="5">
+        <v>79.643529653549194</v>
+      </c>
+      <c r="H6" s="5">
+        <v>48.780488967895508</v>
+      </c>
+      <c r="I6" s="5">
         <v>78.330206871032715</v>
       </c>
-      <c r="J2">
-        <v>75.797373056411743</v>
-      </c>
-      <c r="K2">
+      <c r="J6" s="5">
+        <v>79.080677032470703</v>
+      </c>
+      <c r="K6" s="5">
+        <v>81.425893306732178</v>
+      </c>
+      <c r="L6" s="5">
         <v>78.142589330673218</v>
       </c>
-      <c r="L2">
-        <v>76.454031467437744</v>
-      </c>
-      <c r="M2">
-        <v>79.455912113189697</v>
-      </c>
-      <c r="N2">
-        <v>76.815465688705444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="M6" s="5">
+        <v>79.737335443496704</v>
+      </c>
+      <c r="N6" s="5">
+        <v>76.007806062698364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>76.476103067398071</v>
-      </c>
-      <c r="E3">
-        <v>77.319586277008057</v>
-      </c>
-      <c r="F3">
-        <v>78.611630201339722</v>
-      </c>
-      <c r="G3">
-        <v>77.485930919647217</v>
-      </c>
-      <c r="H3">
-        <v>77.392119169235229</v>
-      </c>
-      <c r="I3">
-        <v>75.89118480682373</v>
-      </c>
-      <c r="J3">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>51.358950138092041</v>
+      </c>
+      <c r="E7" s="5">
+        <v>77.22586989402771</v>
+      </c>
+      <c r="F7" s="5">
+        <v>78.799247741699219</v>
+      </c>
+      <c r="G7" s="5">
+        <v>78.893059492111206</v>
+      </c>
+      <c r="H7" s="5">
+        <v>51.031893491745002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>79.2682945728302</v>
+      </c>
+      <c r="J7" s="5">
+        <v>81.33208155632019</v>
+      </c>
+      <c r="K7" s="5">
         <v>79.36210036277771</v>
       </c>
-      <c r="K3">
-        <v>70.63789963722229</v>
-      </c>
-      <c r="L3">
-        <v>77.767354249954224</v>
-      </c>
-      <c r="M3">
-        <v>75.140714645385742</v>
-      </c>
-      <c r="N3">
-        <v>76.608462333679199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>79.2877197265625</v>
-      </c>
-      <c r="E4">
-        <v>76.194941997528076</v>
-      </c>
-      <c r="F4">
-        <v>78.893059492111206</v>
-      </c>
-      <c r="G4">
-        <v>72.983115911483765</v>
-      </c>
-      <c r="H4">
-        <v>76.641649007797241</v>
-      </c>
-      <c r="I4">
-        <v>78.705441951751709</v>
-      </c>
-      <c r="J4">
-        <v>72.983115911483765</v>
-      </c>
-      <c r="K4">
-        <v>76.360225677490234</v>
-      </c>
-      <c r="L4">
-        <v>77.579736709594727</v>
-      </c>
-      <c r="M4">
-        <v>75.422137975692749</v>
-      </c>
-      <c r="N4">
-        <v>76.505114436149597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>74.789130687713623</v>
-      </c>
-      <c r="E5">
-        <v>78.537958860397339</v>
-      </c>
-      <c r="F5">
-        <v>75.422137975692749</v>
-      </c>
-      <c r="G5">
-        <v>78.517824411392212</v>
-      </c>
-      <c r="H5">
-        <v>77.954971790313721</v>
-      </c>
-      <c r="I5">
-        <v>72.607880830764771</v>
-      </c>
-      <c r="J5">
-        <v>75.422137975692749</v>
-      </c>
-      <c r="K5">
-        <v>74.296432733535767</v>
-      </c>
-      <c r="L5">
-        <v>76.735460758209229</v>
-      </c>
-      <c r="M5">
-        <v>77.204501628875732</v>
-      </c>
-      <c r="N5">
-        <v>76.148843765258789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>77.7881920337677</v>
-      </c>
-      <c r="E6">
-        <v>76.850986480712891</v>
-      </c>
-      <c r="F6">
-        <v>74.671667814254761</v>
-      </c>
-      <c r="G6">
-        <v>74.953097105026245</v>
-      </c>
-      <c r="H6">
-        <v>73.92120361328125</v>
-      </c>
-      <c r="I6">
-        <v>76.829266548156738</v>
-      </c>
-      <c r="J6">
-        <v>76.923078298568726</v>
-      </c>
-      <c r="K6">
-        <v>79.36210036277771</v>
-      </c>
-      <c r="L6">
-        <v>75.422137975692749</v>
-      </c>
-      <c r="M6">
-        <v>74.484050273895264</v>
-      </c>
-      <c r="N6">
-        <v>76.120578050613403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>72.258669137954712</v>
-      </c>
-      <c r="E7">
-        <v>76.476103067398071</v>
-      </c>
-      <c r="F7">
-        <v>78.04877758026123</v>
-      </c>
-      <c r="G7">
-        <v>76.172608137130737</v>
-      </c>
-      <c r="H7">
-        <v>72.795498371124268</v>
-      </c>
-      <c r="I7">
-        <v>77.29831337928772</v>
-      </c>
-      <c r="J7">
-        <v>51.782363653182983</v>
-      </c>
-      <c r="K7">
-        <v>76.07879638671875</v>
-      </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>77.861166000366211</v>
       </c>
-      <c r="M7">
-        <v>80.487805604934692</v>
-      </c>
-      <c r="N7">
-        <v>73.926010131835938</v>
+      <c r="M7" s="5">
+        <v>81.801128387451172</v>
+      </c>
+      <c r="N7" s="5">
+        <v>73.693379163742065</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>77.038425207138062</v>
-      </c>
-      <c r="E8">
-        <v>76.101219654083252</v>
-      </c>
-      <c r="F8">
-        <v>79.080677032470703</v>
-      </c>
-      <c r="G8">
-        <v>72.983115911483765</v>
-      </c>
-      <c r="H8">
-        <v>78.142589330673218</v>
-      </c>
-      <c r="I8">
-        <v>74.671667814254761</v>
-      </c>
-      <c r="J8">
-        <v>78.986865282058716</v>
-      </c>
-      <c r="K8">
-        <v>76.360225677490234</v>
-      </c>
-      <c r="L8">
-        <v>75.140714645385742</v>
-      </c>
-      <c r="M8">
-        <v>47.748592495918267</v>
-      </c>
-      <c r="N8">
-        <v>73.625409305095673</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>78.631675243377686</v>
-      </c>
-      <c r="E9">
-        <v>75.726336240768433</v>
-      </c>
-      <c r="F9">
-        <v>50.09380578994751</v>
-      </c>
-      <c r="G9">
-        <v>76.172608137130737</v>
-      </c>
-      <c r="H9">
-        <v>76.923078298568726</v>
-      </c>
-      <c r="I9">
-        <v>72.420263290405273</v>
-      </c>
-      <c r="J9">
-        <v>75.046902894973755</v>
-      </c>
-      <c r="K9">
-        <v>75.797373056411743</v>
-      </c>
-      <c r="L9">
-        <v>76.454031467437744</v>
-      </c>
-      <c r="M9">
-        <v>76.547843217849731</v>
-      </c>
-      <c r="N9">
-        <v>73.381391763687134</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
